--- a/biology/Botanique/Miltonia/Miltonia.xlsx
+++ b/biology/Botanique/Miltonia/Miltonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Miltonia, ou Milt dans le commerce, est un genre de la famille des Orchidées (Orchidaceae), nommé d'après l'amateur anglais Lord Fitzwilliam Milton.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces orchidées épiphytes poussent dans une aire qui va du centre et du sud du Brésil jusqu'en Argentine. Elles possèdent une ou deux feuilles qui sortent d'un grand pseudo-bulbe ovoïde et comprimé. L'inflorescence est composée de fleurs  cireuses sans ergot. Le labelle est large et aplati; il est dépourvu d'éperon. Le gynostème présente deux pollinies rigides. Les fleurs dégagent une légère odeur suave et exotique. 
 Les sujets de ce genre sont souvent confondus avec d'autres orchidées du genre Miltoniopsis. Seuls les spécialistes et les amateurs éclairés font systématiquement la différence entre Miltonia et Miltoniopsis, les deux termes étant souvent utilisés l'un pour l'autre dans le commerce, ce qui peut causer une certaine confusion.  
@@ -547,7 +561,9 @@
           <t>Hybrides naturels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Miltonia ×bluntii Rchb.f. (1879) (= Miltonia clowesii × Miltonia spectabilis) (Brésil)
 Miltonia ×cogniauxiae Peeters ex Cogn. &amp; Gooss. (1900) (Miltonia regnellii × Miltonia spectabilis) (Brésil)
@@ -580,7 +596,9 @@
           <t>Hybrides inter-génériques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">×Aliceara (Brassia × Miltonia × Oncidium)
 ×Aspodonia (Aspasia × Miltonia × Odontoglossum)
@@ -648,9 +666,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (6 août 2014)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (6 août 2014) :
 Miltonia altairiana
 Miltonia binotii
 Miltonia bluntii
@@ -670,9 +690,9 @@
 Miltonia rosina
 Miltonia russelliana
 Miltonia spectabilis
-Selon GRIN            (6 août 2014)[3] :
+Selon GRIN            (6 août 2014) :
 Miltonia spectabilis Lindl.
-Selon World Checklist of Selected Plant Families (WCSP)  (6 août 2014)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (6 août 2014) :
 Miltonia altairiana Chiron &amp; V.P.Castro (2009 publ. 2008)
 Miltonia ×binotii Cogn., Gard. Chron., ser. 3 (1897)
 Miltonia ×bluntii Rchb.f., Gard. Chron., n.s. (1879)
@@ -693,7 +713,7 @@
 'Miltonia ×rosina Barb.Rodr. (1877)
 Miltonia russelliana (Lindl.) Lindl. (1841)
 Miltonia spectabilis Lindl. (1837)
-Selon The Plant List            (6 août 2014)[5] :
+Selon The Plant List            (6 août 2014) :
 Miltonia altairiana Chiron &amp; V.P.Castro
 Miltonia binotii Cogn.
 Miltonia bluntii Rchb.f.
@@ -713,7 +733,7 @@
 Miltonia rosina Barb.Rodr.
 Miltonia russelliana (Lindl.) Lindl.
 Miltonia spectabilis Lindl.
-Selon Tropicos                                           (6 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 Miltonia anceps Lindl.
 Miltonia bicolor Lodd. ex Buyss.
 Miltonia binoti Cogn.
